--- a/Data/PLANILHA DE CONTROLE DE FATURAS.xlsx
+++ b/Data/PLANILHA DE CONTROLE DE FATURAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\robo\Projetos UiPath\prj_HC_ContasMunicipais\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://t2cconsultoria365-my.sharepoint.com/personal/sidnei_cruz_t2cgroup_com_br/Documents/Documentos/Projetos/58 - Projeto Hospital Care/#00 Concessionarias - Campinas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE006A7-210D-42D8-8AA5-433CABD76021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB1E55D3-6AFD-478C-A95F-8AD0F49047EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="4" activeTab="3" xr2:uid="{78ABD955-167D-4880-A8C2-036EBAA59347}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{78ABD955-167D-4880-A8C2-036EBAA59347}"/>
   </bookViews>
   <sheets>
     <sheet name="CPFL TIME" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="200">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -699,6 +699,9 @@
     <t>Agua_Jesuino Marcondes_400</t>
   </si>
   <si>
+    <t>ADM</t>
+  </si>
+  <si>
     <t>NRC</t>
   </si>
   <si>
@@ -799,7 +802,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000000000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,7 +1115,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1308,6 +1311,21 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1325,37 +1343,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{7CD92F41-564C-48E4-A4D0-921679BC801A}"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="00000000000000"/>
       <fill>
@@ -1599,6 +1591,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -1613,13 +1612,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1640,6 +1632,32 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1654,29 +1672,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0906FDB8-F0D8-4487-B754-C6C29A0BDEEC}" name="Tabela2" displayName="Tabela2" ref="A1:K15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:K15" xr:uid="{0906FDB8-F0D8-4487-B754-C6C29A0BDEEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0906FDB8-F0D8-4487-B754-C6C29A0BDEEC}" name="Tabela2" displayName="Tabela2" ref="A1:K18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A1:K18" xr:uid="{0906FDB8-F0D8-4487-B754-C6C29A0BDEEC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{66B4791A-4B42-4AA9-A656-F48FFD276222}" name="ITEM" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{66B4791A-4B42-4AA9-A656-F48FFD276222}" name="ITEM" dataDxfId="10">
       <calculatedColumnFormula>+A1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{90DAB73E-AE66-41E2-9C07-5753C0709B65}" name="Endereço" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D2EC3624-A084-49F9-9E94-B06FFE14AF80}" name="Centro de Custo" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{47450CC2-D043-47EC-813F-6E61E7CD9C4A}" name="Tipo" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{87A45F5E-34F6-46A8-984D-463F203B990C}" name="Critério Rateio/Centro de Custo" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{8E74C8B0-14DA-49A1-8DA4-F99DFD1ABB69}" name="Débito Automático" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{D539F9CE-0F06-414F-A232-26CCD8A0736D}" name="Código Consumidor" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{3B270212-42DC-4897-AE29-5796DC5B0092}" name="Fatura Recebida por e-mail" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{9E8A40A9-5B5F-4DEE-BE52-A801E03C360E}" name="URL " dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{BF7B1BF3-0A95-4907-8748-D72645614BD3}" name="Codigo Consumidor" dataDxfId="2" dataCellStyle="Hiperlink"/>
-    <tableColumn id="10" xr3:uid="{50CF6631-E9AA-4ADA-858B-B8C682FEB858}" name="CNPJ" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{90DAB73E-AE66-41E2-9C07-5753C0709B65}" name="Endereço" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D2EC3624-A084-49F9-9E94-B06FFE14AF80}" name="Centro de Custo" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{47450CC2-D043-47EC-813F-6E61E7CD9C4A}" name="Tipo" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{87A45F5E-34F6-46A8-984D-463F203B990C}" name="Critério Rateio/Centro de Custo" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{8E74C8B0-14DA-49A1-8DA4-F99DFD1ABB69}" name="Débito Automático" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D539F9CE-0F06-414F-A232-26CCD8A0736D}" name="Código Consumidor" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{3B270212-42DC-4897-AE29-5796DC5B0092}" name="Fatura Recebida por e-mail" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{9E8A40A9-5B5F-4DEE-BE52-A801E03C360E}" name="URL " dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{BF7B1BF3-0A95-4907-8748-D72645614BD3}" name="Codigo Consumidor" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{50CF6631-E9AA-4ADA-858B-B8C682FEB858}" name="CNPJ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1981,7 +1999,7 @@
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -1991,7 +2009,7 @@
     <col min="10" max="10" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2055,7 +2073,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2119,7 +2137,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2151,7 +2169,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2311,7 +2329,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2375,7 +2393,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2407,7 +2425,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2439,7 +2457,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2503,7 +2521,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2599,7 +2617,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2631,7 +2649,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2695,7 +2713,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2727,7 +2745,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2791,7 +2809,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2823,7 +2841,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2855,7 +2873,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2887,7 +2905,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2919,7 +2937,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2951,7 +2969,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3047,7 +3065,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3079,7 +3097,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3143,7 +3161,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3207,7 +3225,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3303,7 +3321,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3367,7 +3385,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3399,7 +3417,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3463,7 +3481,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3495,7 +3513,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3527,7 +3545,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3559,7 +3577,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3591,7 +3609,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3655,7 +3673,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3719,7 +3737,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3751,7 +3769,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3783,7 +3801,7 @@
         <v>33050196000188</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3843,7 +3861,7 @@
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
@@ -3856,7 +3874,7 @@
     <col min="12" max="12" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3932,7 +3950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3970,7 +3988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -4008,7 +4026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -4046,7 +4064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -4084,7 +4102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -4160,7 +4178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -4198,7 +4216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -4236,7 +4254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -4274,7 +4292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -4312,7 +4330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -4350,7 +4368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -4426,7 +4444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -4464,7 +4482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -4502,7 +4520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -4540,7 +4558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -4578,7 +4596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -4616,7 +4634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -4654,7 +4672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -4692,7 +4710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -4730,7 +4748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -4768,7 +4786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -4806,7 +4824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -4844,7 +4862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -4882,7 +4900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -4920,7 +4938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -4958,7 +4976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -5034,7 +5052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -5072,7 +5090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -5110,7 +5128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -5148,7 +5166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -5186,7 +5204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -5224,7 +5242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -5262,7 +5280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -5300,7 +5318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -5338,7 +5356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -5376,7 +5394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -5414,7 +5432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -5452,7 +5470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -5490,7 +5508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -5528,7 +5546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -5566,7 +5584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -5604,7 +5622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -5642,7 +5660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -5680,7 +5698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -5718,7 +5736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -5756,7 +5774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -5794,7 +5812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -5832,7 +5850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="16">
         <v>52</v>
       </c>
@@ -5870,7 +5888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -5908,7 +5926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -5946,7 +5964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -5984,7 +6002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -6042,7 +6060,7 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" hidden="1" customWidth="1"/>
@@ -6062,7 +6080,7 @@
     <col min="17" max="1018" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="36" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -6112,7 +6130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="40" customFormat="1">
       <c r="A2" s="37" t="s">
         <v>23</v>
       </c>
@@ -6159,7 +6177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="40" customFormat="1">
       <c r="A3" s="37" t="s">
         <v>23</v>
       </c>
@@ -6206,7 +6224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="40" customFormat="1">
       <c r="A4" s="37" t="s">
         <v>23</v>
       </c>
@@ -6253,7 +6271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
@@ -6300,7 +6318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="40" customFormat="1">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -6347,7 +6365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="40" customFormat="1">
       <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
@@ -6394,7 +6412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="40" customFormat="1">
       <c r="A8" s="37" t="s">
         <v>116</v>
       </c>
@@ -6441,7 +6459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="40" customFormat="1">
       <c r="A9" s="37" t="s">
         <v>120</v>
       </c>
@@ -6490,7 +6508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="40" customFormat="1">
       <c r="A10" s="37" t="s">
         <v>23</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="40" customFormat="1">
       <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
@@ -6586,7 +6604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="40" customFormat="1">
       <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
@@ -6633,7 +6651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="21" customFormat="1">
       <c r="A13" s="30"/>
       <c r="B13" s="38" t="s">
         <v>131</v>
@@ -6672,7 +6690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="21" customFormat="1">
       <c r="A14" s="30" t="s">
         <v>23</v>
       </c>
@@ -6717,7 +6735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="21" customFormat="1">
       <c r="A15" s="30"/>
       <c r="B15" s="39" t="s">
         <v>137</v>
@@ -6754,7 +6772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="21" customFormat="1">
       <c r="A16" s="30"/>
       <c r="B16" s="39"/>
       <c r="C16" s="27"/>
@@ -6769,7 +6787,7 @@
       <c r="L16" s="42"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="21" customFormat="1">
       <c r="A17" s="30"/>
       <c r="B17" s="39"/>
       <c r="C17" s="27"/>
@@ -6784,7 +6802,7 @@
       <c r="L17" s="42"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="21" customFormat="1">
       <c r="A18" s="30"/>
       <c r="B18" s="39"/>
       <c r="C18" s="27"/>
@@ -6799,7 +6817,7 @@
       <c r="L18" s="42"/>
       <c r="M18" s="34"/>
     </row>
-    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="21" customFormat="1">
       <c r="A19" s="30"/>
       <c r="B19" s="38"/>
       <c r="C19" s="27"/>
@@ -6814,7 +6832,7 @@
       <c r="L19" s="42"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="21" customFormat="1">
       <c r="A20" s="30" t="s">
         <v>23</v>
       </c>
@@ -6839,7 +6857,7 @@
       <c r="L20" s="43"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="21" customFormat="1">
       <c r="A21" s="30" t="s">
         <v>23</v>
       </c>
@@ -6864,7 +6882,7 @@
       <c r="L21" s="42"/>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="21" customFormat="1">
       <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
@@ -6889,9 +6907,9 @@
       <c r="L22" s="42"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1"/>
+    <row r="24" spans="1:13" hidden="1"/>
+    <row r="25" spans="1:13" s="21" customFormat="1">
       <c r="A25" s="30" t="s">
         <v>147</v>
       </c>
@@ -6914,7 +6932,7 @@
       <c r="L25" s="42"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="21" customFormat="1">
       <c r="A26" s="30" t="s">
         <v>23</v>
       </c>
@@ -6937,7 +6955,7 @@
       <c r="L26" s="42"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="72" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:13">
       <c r="G72" s="44"/>
       <c r="H72" s="45">
         <v>20784</v>
@@ -6950,7 +6968,7 @@
       <c r="L72" s="46"/>
       <c r="M72" s="45"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -6961,7 +6979,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B1:G1 I1:P1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" location="/login" display="https://servicosonline.cpfl.com.br/agencia-webapp/ - /login" xr:uid="{4068E0D1-E5A3-4392-A7F3-6E5C3FCAB0D7}"/>
@@ -6977,13 +6995,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C2AEC7-8CDD-4965-8DAA-F0648576B946}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
@@ -6998,7 +7016,7 @@
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="23" t="s">
         <v>152</v>
       </c>
@@ -7033,7 +7051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -7068,7 +7086,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="21" customFormat="1">
       <c r="A3" s="21">
         <f>+A2+1</f>
         <v>2</v>
@@ -7104,7 +7122,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="21" customFormat="1">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A15" si="0">+A3+1</f>
         <v>3</v>
@@ -7140,7 +7158,7 @@
         <v>46009718000301</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="21" customFormat="1">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7176,7 +7194,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="21" customFormat="1">
       <c r="A6" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7212,7 +7230,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="21" customFormat="1">
       <c r="A7" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7248,7 +7266,7 @@
         <v>11457797000177</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="21" customFormat="1">
       <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7282,7 +7300,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="21" customFormat="1">
       <c r="A9" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7316,7 +7334,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A10" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7352,7 +7370,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7388,7 +7406,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7424,7 +7442,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="21" customFormat="1">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7460,7 +7478,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="21" customFormat="1">
       <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7496,7 +7514,7 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="21" customFormat="1">
       <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7532,23 +7550,77 @@
         <v>46009718000140</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D16"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="4:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="4:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+    <row r="16" spans="1:11" s="21" customFormat="1">
+      <c r="A16" s="21">
+        <f>+A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
+    </row>
+    <row r="17" spans="1:11" s="21" customFormat="1">
+      <c r="A17" s="21">
+        <f>+A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
+    </row>
+    <row r="18" spans="1:11" s="21" customFormat="1">
+      <c r="A18" s="21">
+        <f>+A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+    </row>
+    <row r="19" spans="1:11" s="21" customFormat="1">
+      <c r="D19"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" s="21" customFormat="1">
+      <c r="D20"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" s="21" customFormat="1">
+      <c r="D21"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -7592,7 +7664,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -7604,15 +7676,15 @@
     <col min="8" max="8" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="76" t="s">
         <v>170</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>171</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>7</v>
@@ -7621,224 +7693,224 @@
         <v>154</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="56">
         <v>9464051154</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="74">
         <v>20470</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="69" t="s">
+      <c r="E2" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="74" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H2" s="58">
         <v>202101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="57">
         <v>9464051235</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="74">
         <v>20470</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="75" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H3" s="59">
         <v>202101</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="53">
         <v>297043676</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="53">
         <v>297044729</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H5" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="53">
         <v>297043919</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F6" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H6" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="53">
         <v>297045105</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F7" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H7" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="53">
         <v>297044133</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H8" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="53">
         <v>239926030</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F9" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H9" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="54">
         <v>297046349</v>
       </c>
@@ -7846,25 +7918,25 @@
         <v>20074</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H10" s="61">
         <v>202101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="53">
         <v>297046500</v>
       </c>
@@ -7872,25 +7944,25 @@
         <v>20172</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H11" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="53">
         <v>297047078</v>
       </c>
@@ -7898,25 +7970,25 @@
         <v>20626</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D12" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F12" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H12" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="53">
         <v>2095067686</v>
       </c>
@@ -7924,51 +7996,51 @@
         <v>20069</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F13" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H13" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="53">
         <v>249707942</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F14" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H14" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="53">
         <v>207654522</v>
       </c>
@@ -7976,51 +8048,51 @@
         <v>20024</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D15" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H15" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="53">
         <v>4098868821</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D16" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H16" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="53">
         <v>4098868902</v>
       </c>
@@ -8028,25 +8100,25 @@
         <v>20050</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H17" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="53">
         <v>4098869046</v>
       </c>
@@ -8054,51 +8126,51 @@
         <v>20127</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F18" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H18" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="53">
         <v>4039430785</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F19" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H19" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="53">
         <v>207556865</v>
       </c>
@@ -8106,25 +8178,25 @@
         <v>20015</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H20" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="53">
         <v>206635605</v>
       </c>
@@ -8132,25 +8204,25 @@
         <v>20494</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F21" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H21" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="53">
         <v>213991314</v>
       </c>
@@ -8158,25 +8230,25 @@
         <v>20228</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F22" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H22" s="60">
         <v>202101</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="53">
         <v>6072505779</v>
       </c>
@@ -8184,19 +8256,19 @@
         <v>20335</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F23" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H23" s="60">
         <v>202101</v>
@@ -8451,37 +8523,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245BF220-97FE-48BB-A205-F00F34369079}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245BF220-97FE-48BB-A205-F00F34369079}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2609756-E28E-423D-8872-3C02C0935103}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74f9ddb5-1420-4a28-a31c-0e89ef2b5702"/>
-    <ds:schemaRef ds:uri="ddec4300-165d-445e-a9b4-22f04ff0da33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2609756-E28E-423D-8872-3C02C0935103}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB0BFA1B-72D9-4752-84AE-0B44CB33B15C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB0BFA1B-72D9-4752-84AE-0B44CB33B15C}"/>
 </file>